--- a/Off_flavour_Data.xlsx
+++ b/Off_flavour_Data.xlsx
@@ -1,31 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Off_flavors_Neha\Off-flavors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NEHA\thesis\Off-flavors\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4EF33A-30A5-4A8F-B8A7-7A8768E1497E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7428" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Off_Intensitsy" sheetId="1" r:id="rId1"/>
-    <sheet name="Off_Intensity_panel" sheetId="6" r:id="rId2"/>
+    <sheet name="Butter_panel_df" sheetId="6" r:id="rId2"/>
+    <sheet name="Palm_panel_df" sheetId="7" r:id="rId3"/>
+    <sheet name="Butter_panel_of" sheetId="8" r:id="rId4"/>
+    <sheet name="Palm_panel_of" sheetId="9" r:id="rId5"/>
+    <sheet name="Off_Intensity_panel" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="35">
   <si>
     <t>A</t>
   </si>
@@ -122,11 +137,20 @@
   <si>
     <t>Intensity.avg</t>
   </si>
+  <si>
+    <t>nicole</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Ref-Ref</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -177,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,22 +215,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3354,1276 +3393,3498 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9.5546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2" s="16">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
         <f>AVERAGE(C2:H2)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>3</v>
-      </c>
-      <c r="I3" s="16">
-        <f t="shared" ref="I3:I19" si="0">AVERAGE(C3:H3)</f>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I20" si="0">AVERAGE(C3:H3)</f>
         <v>1.8333333333333333</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>4</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>2</v>
-      </c>
-      <c r="I6" s="16">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="16">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>3</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>4</v>
-      </c>
-      <c r="G9" s="5">
-        <v>3</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2</v>
-      </c>
-      <c r="I9" s="16">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="16">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>3</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5">
-        <v>3</v>
-      </c>
-      <c r="F12" s="5">
-        <v>3</v>
-      </c>
-      <c r="G12" s="5">
-        <v>4</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1</v>
-      </c>
-      <c r="I12" s="16">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10">
         <f t="shared" si="0"/>
         <v>2.8333333333333335</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="16">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="16">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="16">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" s="16">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>3</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="16">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>2</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>3</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="16">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="A21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="A22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="A23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="A24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="A25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="A26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="A27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="A28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="A29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="A30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="A31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="A32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="A33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="A34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="A35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="A36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="61" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F61" s="10"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F62" s="11"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
+      <c r="A37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="63" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F63" s="11"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
     </row>
     <row r="64" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F64" s="11"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
     </row>
     <row r="65" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F65" s="11"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
     </row>
     <row r="66" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F66" s="11"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
     </row>
     <row r="67" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F67" s="11"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
     </row>
     <row r="68" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F68" s="11"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
     </row>
     <row r="69" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F69" s="11"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
     </row>
     <row r="70" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F70" s="11"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
     </row>
     <row r="71" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F71" s="11"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
     </row>
     <row r="72" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F72" s="11"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
     </row>
     <row r="73" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F73" s="11"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
     </row>
     <row r="74" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F74" s="11"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
     </row>
     <row r="75" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F75" s="11"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
     </row>
     <row r="76" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F76" s="11"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
     </row>
     <row r="77" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F77" s="11"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
     </row>
     <row r="78" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F78" s="11"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
     </row>
     <row r="79" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F79" s="11"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
     </row>
     <row r="80" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F80" s="12"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
     </row>
     <row r="81" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F81" s="10"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
+      <c r="F81" s="7"/>
     </row>
     <row r="82" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F82" s="10"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
     </row>
     <row r="83" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F83" s="10"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
     </row>
     <row r="84" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F84" s="10"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
     </row>
     <row r="85" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F85" s="10"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
     </row>
     <row r="86" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F86" s="10"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
     </row>
     <row r="87" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F87" s="10"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
     </row>
     <row r="88" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F88" s="13"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
     </row>
     <row r="89" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F89" s="8"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
     </row>
     <row r="90" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F90" s="10"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
     </row>
     <row r="91" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F91" s="10"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
     </row>
     <row r="92" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F92" s="10"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
     </row>
     <row r="93" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F93" s="10"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
     </row>
     <row r="94" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F94" s="10"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
     </row>
     <row r="95" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F95" s="14"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
     </row>
     <row r="96" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F96" s="8"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-    </row>
-    <row r="97" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F97" s="10"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-    </row>
-    <row r="98" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F98" s="10"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-    </row>
-    <row r="99" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F99" s="10"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-    </row>
-    <row r="100" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F100" s="10"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-    </row>
-    <row r="101" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F101" s="10"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFBB0E1-0D05-421F-8B66-4DA26FD607B8}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10">
+        <f t="shared" ref="H2:H20" si="0">AVERAGE(C2:G2)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564B7706-6915-4F2A-BAA2-FDB2DEAF6AD8}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <f>AVERAGE(C2:H2)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I20" si="0">AVERAGE(C3:H3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="0"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F7DF31-B24D-4417-82B8-D345622DBABA}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10">
+        <f>AVERAGE(B2:G2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H20" si="0">AVERAGE(B3:G3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A083212C-A9C5-46AA-987A-8C16790FCD78}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>220</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14">
+        <v>220</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14">
+        <v>220</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14">
+        <v>220</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="14">
+        <v>220</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14">
+        <v>220</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="14">
+        <v>220</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14">
+        <v>220</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14">
+        <v>220</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14">
+        <v>220</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14">
+        <v>220</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14">
+        <v>220</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14">
+        <v>220</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="14">
+        <v>220</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="14">
+        <v>220</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="14">
+        <v>220</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="14">
+        <v>220</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1.7333333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="14">
+        <v>220</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="14">
+        <v>220</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1.1333333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="14">
+        <v>220</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="14">
+        <v>220</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="14">
+        <v>220</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="14">
+        <v>220</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="19">
+        <v>1.5333333333333334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="14">
+        <v>220</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="14">
+        <v>220</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="19">
+        <v>1.5333333333333334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="14">
+        <v>220</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="14">
+        <v>220</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="14">
+        <v>220</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>